--- a/medicine/Mort/Cimetière_américain_du_Saillant_de_Saint-Mihiel/Cimetière_américain_du_Saillant_de_Saint-Mihiel.xlsx
+++ b/medicine/Mort/Cimetière_américain_du_Saillant_de_Saint-Mihiel/Cimetière_américain_du_Saillant_de_Saint-Mihiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_am%C3%A9ricain_du_Saillant_de_Saint-Mihiel</t>
+          <t>Cimetière_américain_du_Saillant_de_Saint-Mihiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière américain du Saillant de Saint-Mihiel (World War I St. Mihiel American Cemetery and Memorial) est un cimetière militaire américain de la Première Guerre mondiale situé sur le territoire de la commune de Thiaucourt-Regniéville, dans le département de Meurthe-et-Moselle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_am%C3%A9ricain_du_Saillant_de_Saint-Mihiel</t>
+          <t>Cimetière_américain_du_Saillant_de_Saint-Mihiel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les corps de 4 158 soldats américains y sont inhumés.
 Sur les deux murs du mémorial sont gravés les noms de 284 soldats américains dont le corps n'a jamais été retrouvé.
-Le cimetière américain a fait l'objet d'une inscription sur l'inventaire supplémentaire des monuments historiques par arrêté du 28 décembre 2017[1],[2].
+Le cimetière américain a fait l'objet d'une inscription sur l'inventaire supplémentaire des monuments historiques par arrêté du 28 décembre 2017,.
 </t>
         </is>
       </c>
